--- a/output_rk4.xlsx
+++ b/output_rk4.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,7 +496,7 @@
         <v>676</v>
       </c>
       <c r="D4" t="n">
-        <v>665.908</v>
+        <v>664.8000000000001</v>
       </c>
     </row>
     <row r="5">
@@ -512,7 +512,7 @@
         <v>700</v>
       </c>
       <c r="D5" t="n">
-        <v>499.708</v>
+        <v>498.6</v>
       </c>
     </row>
     <row r="6">
@@ -528,7 +528,87 @@
         <v>775</v>
       </c>
       <c r="D6" t="n">
-        <v>665.908</v>
+        <v>664.8000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>8/26/2018 19:20</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>774</v>
+      </c>
+      <c r="D7" t="n">
+        <v>831.0000000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>8/26/2018 19:25</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>776</v>
+      </c>
+      <c r="D8" t="n">
+        <v>831.0000000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>8/26/2018 19:30</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>769</v>
+      </c>
+      <c r="D9" t="n">
+        <v>831.0000000000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>8/26/2018 19:35</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>754</v>
+      </c>
+      <c r="D10" t="n">
+        <v>831.0000000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>8/26/2018 19:50</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>770</v>
+      </c>
+      <c r="D11" t="n">
+        <v>831.0000000000001</v>
       </c>
     </row>
   </sheetData>
